--- a/web/upload-example.xlsx
+++ b/web/upload-example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Марка</t>
   </si>
@@ -31,49 +31,37 @@
     <t xml:space="preserve">Поколение</t>
   </si>
   <si>
-    <t xml:space="preserve">Год выпуска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пробег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коробка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип двигателя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объем двигателя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мощность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владельцев по ПТС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III (2015 — 2018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бензин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Передний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0</t>
+    <t xml:space="preserve">Поколение год начала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поколение год Конца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модификация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobilio Spike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 поколение [рестайлинг]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минивэн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 CVT 4WD (110 л.с.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345.89</t>
   </si>
 </sst>
 </file>
@@ -88,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,8 +136,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,17 +166,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.66"/>
   </cols>
@@ -209,49 +209,31 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>34000</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
